--- a/Templates/Spread-sheet- template.xlsx
+++ b/Templates/Spread-sheet- template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
   <si>
     <t>Template for System Analysis</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Picture  + textual description</t>
-  </si>
-  <si>
     <t>Number</t>
   </si>
   <si>
@@ -271,6 +268,15 @@
   </si>
   <si>
     <t>a textual and graphical description (all kind of picture, table and diagram are allowed)</t>
+  </si>
+  <si>
+    <t>Files to complete this analysis</t>
+  </si>
+  <si>
+    <t>Textual description with links to the name of elements defined in the other tabs or linked to other files (graphical description)</t>
+  </si>
+  <si>
+    <t>Design choices</t>
   </si>
 </sst>
 </file>
@@ -497,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -535,18 +541,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -557,6 +551,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -569,14 +584,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,24 +888,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1"/>
@@ -916,7 +925,7 @@
       <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="15.75">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -932,7 +941,7 @@
       <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="15.75">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -948,59 +957,82 @@
       <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="15.75">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="18.75">
+    <row r="17" spans="1:5" ht="18.75">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75">
+    <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" ht="15.75">
+    <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75">
+    <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" ht="18.75">
+    <row r="21" spans="1:5">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="18.75">
       <c r="A22" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="18.75">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.75">
+      <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="18.75">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.75">
-      <c r="A24" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" ht="15.75">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" ht="15.75">
-      <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" ht="15.75">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:5" ht="18.75">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="66.75" customHeight="1">
+      <c r="A28" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="18.75">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1027,264 +1059,264 @@
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" thickBot="1">
       <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="C1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="31.5">
+      <c r="A2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="31.5">
-      <c r="A2" s="14" t="s">
+      <c r="B2" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="F2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="14" t="s">
+      <c r="J2" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="14" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="15.75">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="J2:J3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1295,7 +1327,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1307,245 +1339,245 @@
     <col min="9" max="9" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32.25" thickBot="1">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1">
       <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="15.75">
+      <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="14" t="s">
+      <c r="B2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="17"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1572,277 +1604,288 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="I1" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" thickBot="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="1:12" ht="31.5">
+      <c r="A3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="L1" s="21" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="22"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="1:12" ht="31.5">
-      <c r="A3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="14" t="s">
+      <c r="J3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="K3" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="14" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+        <v>30</v>
+      </c>
+      <c r="J4" s="23"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="G1:G2"/>
@@ -1850,17 +1893,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1870,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1881,223 +1913,223 @@
     <col min="8" max="8" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" thickBot="1">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1">
       <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="E1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="14" t="s">
+      <c r="B2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="31.5" customHeight="1">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="10" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="15.75">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="17"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2127,100 +2159,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>19</v>
+      <c r="A1" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>30</v>
+      <c r="A3" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
     </row>
     <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="26"/>
+      <c r="A5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="26"/>
+      <c r="A6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="17"/>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="26" t="s">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="26" t="s">
+      <c r="B9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="26" t="s">
+      <c r="B10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" ht="63">
+      <c r="A11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="63">
-      <c r="A11" s="26" t="s">
+      <c r="B11" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75">
+      <c r="A12" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="26" t="s">
+      <c r="B12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="47.25">
+      <c r="A13" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="47.25">
-      <c r="A13" s="26" t="s">
+      <c r="B13" s="18" t="s">
         <v>57</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>58</v>
       </c>
       <c r="E13" s="3"/>
     </row>

--- a/Templates/Spread-sheet- template.xlsx
+++ b/Templates/Spread-sheet- template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,13 @@
     <sheet name="Requirements" sheetId="3" r:id="rId3"/>
     <sheet name="Variables" sheetId="4" r:id="rId4"/>
     <sheet name="Exported Requirements" sheetId="5" r:id="rId5"/>
-    <sheet name="Types" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
   <si>
     <t>Template for System Analysis</t>
   </si>
@@ -200,76 +199,6 @@
     <t>T_text</t>
   </si>
   <si>
-    <t>Floating point</t>
-  </si>
-  <si>
-    <t>textual description</t>
-  </si>
-  <si>
-    <t>T_ident</t>
-  </si>
-  <si>
-    <t>based on a textual  description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_Version </t>
-  </si>
-  <si>
-    <t>{3.0.0, 3.3.0}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>T_VariableNature</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve"> {Acceleration, Distance, Gradient, Length, Miscellaneous, Number, ClassNumber, IdentityNumber, Qualifier, TimeDate, Speed, Text}</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">T_SourceDocument </t>
-    </r>
-  </si>
-  <si>
-    <t>{subset-26, subset-34}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T_Definition </t>
-  </si>
-  <si>
-    <t>a textual and graphical description (all kind of picture, table and diagram are allowed)</t>
-  </si>
-  <si>
     <t>Files to complete this analysis</t>
   </si>
   <si>
@@ -277,6 +206,15 @@
   </si>
   <si>
     <t>Design choices</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Authors</t>
   </si>
 </sst>
 </file>
@@ -354,7 +292,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +317,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -503,7 +447,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -551,12 +495,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -584,8 +522,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -888,24 +839,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1"/>
@@ -962,77 +916,103 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" ht="18.75">
-      <c r="A17" s="2" t="s">
+      <c r="A16" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75">
+      <c r="A17" s="28"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" ht="18.75">
+      <c r="A20" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:5" ht="15.75">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75">
+      <c r="A22" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
-      <c r="A20" s="3" t="s">
+    <row r="23" spans="1:5" ht="15.75">
+      <c r="A23" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" ht="18.75">
-      <c r="A22" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18.75">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75">
-      <c r="A24" s="3" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="18.75">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18.75">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75">
+      <c r="A27" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75">
-      <c r="A26" s="2" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="18.75">
+      <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.75">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A28" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="18.75">
-      <c r="A31" s="2" t="s">
-        <v>60</v>
+    <row r="30" spans="1:5" ht="18.75">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" ht="69.75" customHeight="1">
+      <c r="A31" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.75">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" ht="18.75">
+      <c r="A34" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A31:E31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1090,16 +1070,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="31.5">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>27</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -1114,18 +1094,18 @@
       <c r="H2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="21"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="11" t="s">
         <v>30</v>
       </c>
@@ -1138,8 +1118,8 @@
       <c r="H3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="14"/>
@@ -1369,28 +1349,28 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="18" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -1398,31 +1378,31 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9">
@@ -1604,73 +1584,73 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="22" t="s">
         <v>41</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="22" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
       <c r="H2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="1:12" ht="31.5">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -1685,24 +1665,24 @@
       <c r="I3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="20" t="s">
+      <c r="K3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="18" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
       <c r="F4" s="10" t="s">
         <v>30</v>
       </c>
@@ -1715,9 +1695,9 @@
       <c r="I4" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="23"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="14"/>
@@ -1875,17 +1855,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="G1:G2"/>
@@ -1893,6 +1862,17 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1940,25 +1920,25 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="12" t="s">
@@ -1966,29 +1946,29 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8">
@@ -2142,130 +2122,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75">
-      <c r="A5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="17"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75">
-      <c r="A6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75">
-      <c r="A7" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75">
-      <c r="A8" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75">
-      <c r="A10" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" ht="63">
-      <c r="A11" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75">
-      <c r="A12" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" ht="47.25">
-      <c r="A13" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="E14" s="3"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="B3:B4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>